--- a/data/trans_camb/P16B97-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Habitat-trans_camb.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 0,0</t>
+          <t>-26,48; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 0,0</t>
+          <t>-13,67; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 0,0</t>
+          <t>-26,48; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 0,0</t>
+          <t>-13,67; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,0</t>
+          <t>-5,96; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,0</t>
+          <t>-9,83; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,0</t>
+          <t>-3,84; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-5,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,0</t>
+          <t>-5,96; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,0</t>
+          <t>-9,83; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,0</t>
+          <t>-3,84; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-5,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -956,27 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,0</t>
+          <t>-8,82; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,61</t>
+          <t>0,0; 12,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 7,21</t>
+          <t>-3,28; 7,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,8</t>
+          <t>0,0; 7,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,15</t>
+          <t>-3,52; 4,37</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,0</t>
+          <t>-8,82; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,14</t>
+          <t>0,0; 13,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 7,75</t>
+          <t>-3,31; 8,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,46</t>
+          <t>0,0; 8,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,34</t>
+          <t>-3,54; 4,62</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 0,0</t>
+          <t>-7,13; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 0,0</t>
+          <t>-9,45; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; -0,53</t>
+          <t>-6,26; -0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,0</t>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 0,0</t>
+          <t>-7,13; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 0,0</t>
+          <t>-9,45; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; -0,53</t>
+          <t>-6,26; -0,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,0</t>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 10,16</t>
+          <t>-2,76; 11,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 8,34</t>
+          <t>-4,49; 8,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,37</t>
+          <t>-1,46; 10,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,7</t>
+          <t>-2,9; 6,33</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 11,33</t>
+          <t>-2,77; 12,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 9,11</t>
+          <t>-4,55; 9,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,96</t>
+          <t>-1,46; 12,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 6,15</t>
+          <t>-2,91; 6,82</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,1</t>
+          <t>-1,49; 3,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,19</t>
+          <t>-2,93; 2,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,72</t>
+          <t>-1,17; 1,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,01</t>
+          <t>-2,23; 1,28</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,21</t>
+          <t>-1,5; 3,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,25</t>
+          <t>-2,96; 2,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,75</t>
+          <t>-1,17; 1,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,03</t>
+          <t>-2,24; 1,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B97-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 0,0</t>
+          <t>-30,62; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 0,0</t>
+          <t>-14,09; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 0,0</t>
+          <t>-30,62; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 0,0</t>
+          <t>-14,09; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,0</t>
+          <t>-5,29; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-8,76; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,0</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,0</t>
+          <t>-5,64; 0,0</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,0</t>
+          <t>-5,29; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-8,76; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,0</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,0</t>
+          <t>-5,64; 0,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -956,27 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,0</t>
+          <t>-8,65; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,03</t>
+          <t>0,0; 11,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 7,91</t>
+          <t>-3,13; 8,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,98</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,37</t>
+          <t>-3,54; 4,69</t>
         </is>
       </c>
     </row>
@@ -1032,34 +1032,34 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,0</t>
+          <t>-8,65; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,69</t>
+          <t>0,0; 12,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 8,68</t>
+          <t>-3,16; 9,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,62</t>
+          <t>-3,54; 4,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,0</t>
+          <t>-7,87; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,0</t>
+          <t>-8,51; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,53</t>
+          <t>-7,27; -0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,0</t>
+          <t>-4,6; 0,0</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,0</t>
+          <t>-7,87; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,0</t>
+          <t>-8,51; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,53</t>
+          <t>-7,27; -0,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,0</t>
+          <t>-4,6; 0,0</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 11,0</t>
+          <t>-2,83; 10,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,48</t>
+          <t>-5,32; 8,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 10,71</t>
+          <t>-1,75; 8,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,33</t>
+          <t>-2,82; 6,42</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 12,36</t>
+          <t>-2,83; 12,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 9,41</t>
+          <t>-5,35; 9,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 12,03</t>
+          <t>-1,76; 8,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,82</t>
+          <t>-2,85; 6,85</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,32</t>
+          <t>-1,54; 3,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,51</t>
+          <t>-2,97; 1,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,8</t>
+          <t>-1,21; 1,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,28</t>
+          <t>-2,09; 1,28</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,0</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,44</t>
+          <t>-1,54; 3,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,58</t>
+          <t>-2,99; 1,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,84</t>
+          <t>-1,21; 1,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,3</t>
+          <t>-2,11; 1,31</t>
         </is>
       </c>
     </row>
